--- a/LOGS/9dc3e434-32dc-4aee-9ff6-bf06b0d787bb/main_page_service_output/notes_standard_cropped_df.xlsx
+++ b/LOGS/9dc3e434-32dc-4aee-9ff6-bf06b0d787bb/main_page_service_output/notes_standard_cropped_df.xlsx
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="874" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1055" uniqueCount="168">
   <si>
     <t>line_item_0</t>
   </si>
@@ -60,6 +60,33 @@
     <t>year</t>
   </si>
   <si>
+    <t>Cash and cash equivalents</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>CASH AND CASH EQUIVALENTS</t>
+  </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>2022</t>
+  </si>
+  <si>
+    <t>Trade</t>
+  </si>
+  <si>
+    <t>Amounts from related entities (note 32)</t>
+  </si>
+  <si>
+    <t>Other amounts</t>
+  </si>
+  <si>
+    <t>TRADE AND OTHER RECEIVABLES</t>
+  </si>
+  <si>
     <t>Carrying amount at 31 March 2021</t>
   </si>
   <si>
@@ -87,9 +114,6 @@
     <t>Plant and equipment</t>
   </si>
   <si>
-    <t>Total</t>
-  </si>
-  <si>
     <t>line_item_1</t>
   </si>
   <si>
@@ -258,10 +282,28 @@
     <t>Transfers 1a adjustments</t>
   </si>
   <si>
-    <t>2023</t>
-  </si>
-  <si>
-    <t>2022</t>
+    <t>Cash flow hedges</t>
+  </si>
+  <si>
+    <t>Current assets</t>
+  </si>
+  <si>
+    <t>Current liabilities</t>
+  </si>
+  <si>
+    <t>Amounts receivable from related entities</t>
+  </si>
+  <si>
+    <t>16 LOAN RECEIVABLE</t>
+  </si>
+  <si>
+    <t>Prepayments</t>
+  </si>
+  <si>
+    <t>Other current assets</t>
+  </si>
+  <si>
+    <t>14 OTHER ASSETS</t>
   </si>
   <si>
     <t>Carrying amount at beginning of year</t>
@@ -273,6 +315,24 @@
     <t>Total intangible assets Net book value</t>
   </si>
   <si>
+    <t>Trade creditors and accrued expenses</t>
+  </si>
+  <si>
+    <t>payable to joint managers</t>
+  </si>
+  <si>
+    <t>Amounts payable to related entities</t>
+  </si>
+  <si>
+    <t>Trade and accrued expenses</t>
+  </si>
+  <si>
+    <t>Current</t>
+  </si>
+  <si>
+    <t>Non-current</t>
+  </si>
+  <si>
     <t>Employee benefits</t>
   </si>
   <si>
@@ -288,9 +348,6 @@
     <t>Rehabilitation (a) (b)</t>
   </si>
   <si>
-    <t>Current</t>
-  </si>
-  <si>
     <t>Non-Current</t>
   </si>
   <si>
@@ -472,6 +529,24 @@
   </si>
   <si>
     <t>Interest received or due and from:</t>
+  </si>
+  <si>
+    <t>Net foreign exchange loss</t>
+  </si>
+  <si>
+    <t>Net (loss) gain from disposal of property, plant and equipment</t>
+  </si>
+  <si>
+    <t>Impairment losses and other write downs of property, plant and equipment</t>
+  </si>
+  <si>
+    <t>Exploration and evaluation expenditure incurred and expensed in the current period</t>
+  </si>
+  <si>
+    <t>(expenses) /income</t>
+  </si>
+  <si>
+    <t>OTHER EXPENSES</t>
   </si>
 </sst>
 </file>
@@ -829,12 +904,98 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2">
+        <v>483051</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3">
+        <v>483051</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4">
+        <v>468763</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5">
+        <v>468763</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5">
+        <v>2022</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -884,13 +1045,13 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="C2">
         <v>2549</v>
       </c>
       <c r="D2" t="s">
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="E2">
         <v>2023</v>
@@ -898,13 +1059,13 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C3">
         <v>8283</v>
       </c>
       <c r="D3" t="s">
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="E3">
         <v>2023</v>
@@ -912,13 +1073,13 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="C4">
         <v>-9277</v>
       </c>
       <c r="D4" t="s">
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="E4">
         <v>2023</v>
@@ -926,13 +1087,13 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="C5">
         <v>1555</v>
       </c>
       <c r="D5" t="s">
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="E5">
         <v>2023</v>
@@ -940,13 +1101,13 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="E6">
         <v>2022</v>
@@ -954,13 +1115,13 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C7">
         <v>9126</v>
       </c>
       <c r="D7" t="s">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="E7">
         <v>2022</v>
@@ -968,13 +1129,13 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="C8">
         <v>-6577</v>
       </c>
       <c r="D8" t="s">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="E8">
         <v>2022</v>
@@ -982,13 +1143,13 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="C9">
         <v>2549</v>
       </c>
       <c r="D9" t="s">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="E9">
         <v>2022</v>
@@ -1001,15 +1162,231 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C2">
+        <v>268105</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C3">
+        <v>542327</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C4">
+        <v>18370</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C5">
+        <v>828802</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>93</v>
+      </c>
+      <c r="B6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C6">
+        <v>51473</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C7">
+        <v>51473</v>
+      </c>
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>90</v>
+      </c>
+      <c r="B8" t="s">
+        <v>94</v>
+      </c>
+      <c r="C8">
+        <v>364735</v>
+      </c>
+      <c r="D8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>91</v>
+      </c>
+      <c r="B9" t="s">
+        <v>94</v>
+      </c>
+      <c r="C9">
+        <v>446932</v>
+      </c>
+      <c r="D9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>92</v>
+      </c>
+      <c r="B10" t="s">
+        <v>94</v>
+      </c>
+      <c r="C10">
+        <v>8333</v>
+      </c>
+      <c r="D10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" t="s">
+        <v>94</v>
+      </c>
+      <c r="C11">
+        <v>820000</v>
+      </c>
+      <c r="D11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>93</v>
+      </c>
+      <c r="B12" t="s">
+        <v>95</v>
+      </c>
+      <c r="C12">
+        <v>49617</v>
+      </c>
+      <c r="D12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" t="s">
+        <v>95</v>
+      </c>
+      <c r="C13">
+        <v>49617</v>
+      </c>
+      <c r="D13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13">
+        <v>2022</v>
       </c>
     </row>
   </sheetData>
@@ -1063,7 +1440,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>4</v>
@@ -1071,19 +1448,19 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="B2" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="C2">
         <v>818</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="E2" t="s">
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="F2">
         <v>2023</v>
@@ -1091,19 +1468,19 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="B3" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="C3">
         <v>48935</v>
       </c>
       <c r="D3" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="E3" t="s">
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="F3">
         <v>2023</v>
@@ -1111,19 +1488,19 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="B4" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="C4">
         <v>7700</v>
       </c>
       <c r="D4" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="E4" t="s">
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="F4">
         <v>2023</v>
@@ -1131,19 +1508,19 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="B5" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="C5">
         <v>10760</v>
       </c>
       <c r="D5" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="E5" t="s">
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="F5">
         <v>2023</v>
@@ -1151,19 +1528,19 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="C6">
         <v>68213</v>
       </c>
       <c r="D6" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="E6" t="s">
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="F6">
         <v>2023</v>
@@ -1171,19 +1548,19 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="B7" t="s">
-        <v>82</v>
+        <v>101</v>
       </c>
       <c r="C7">
         <v>1860599</v>
       </c>
       <c r="D7" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="E7" t="s">
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="F7">
         <v>2023</v>
@@ -1191,19 +1568,19 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>82</v>
+        <v>101</v>
       </c>
       <c r="C8">
         <v>1860599</v>
       </c>
       <c r="D8" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="E8" t="s">
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="F8">
         <v>2023</v>
@@ -1211,19 +1588,19 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="B9" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="C9">
         <v>696</v>
       </c>
       <c r="D9" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="E9" t="s">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="F9">
         <v>2022</v>
@@ -1231,19 +1608,19 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="B10" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="C10">
         <v>62566</v>
       </c>
       <c r="D10" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="E10" t="s">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="F10">
         <v>2022</v>
@@ -1251,19 +1628,19 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="B11" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="C11">
         <v>7700</v>
       </c>
       <c r="D11" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="E11" t="s">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="F11">
         <v>2022</v>
@@ -1271,19 +1648,19 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="B12" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="C12">
         <v>5738</v>
       </c>
       <c r="D12" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="E12" t="s">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="F12">
         <v>2022</v>
@@ -1291,19 +1668,19 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="C13">
         <v>76700</v>
       </c>
       <c r="D13" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="E13" t="s">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="F13">
         <v>2022</v>
@@ -1311,19 +1688,19 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="B14" t="s">
-        <v>82</v>
+        <v>101</v>
       </c>
       <c r="C14">
         <v>1775083</v>
       </c>
       <c r="D14" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="E14" t="s">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="F14">
         <v>2022</v>
@@ -1331,19 +1708,19 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>82</v>
+        <v>101</v>
       </c>
       <c r="C15">
         <v>1775083</v>
       </c>
       <c r="D15" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="E15" t="s">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="F15">
         <v>2022</v>
@@ -1381,16 +1758,16 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>83</v>
+        <v>102</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>90</v>
+        <v>109</v>
       </c>
       <c r="E2">
         <v>2023</v>
@@ -1398,16 +1775,16 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="B3" t="s">
-        <v>88</v>
+        <v>107</v>
       </c>
       <c r="C3">
         <v>248238</v>
       </c>
       <c r="D3" t="s">
-        <v>90</v>
+        <v>109</v>
       </c>
       <c r="E3">
         <v>2023</v>
@@ -1415,16 +1792,16 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>85</v>
+        <v>104</v>
       </c>
       <c r="B4" t="s">
-        <v>88</v>
+        <v>107</v>
       </c>
       <c r="C4">
         <v>547598</v>
       </c>
       <c r="D4" t="s">
-        <v>90</v>
+        <v>109</v>
       </c>
       <c r="E4">
         <v>2022</v>
@@ -1432,16 +1809,16 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>86</v>
+        <v>105</v>
       </c>
       <c r="B5" t="s">
-        <v>89</v>
+        <v>108</v>
       </c>
       <c r="C5">
         <v>28409</v>
       </c>
       <c r="D5" t="s">
-        <v>90</v>
+        <v>109</v>
       </c>
       <c r="E5">
         <v>2023</v>
@@ -1449,16 +1826,16 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="B6" t="s">
-        <v>89</v>
+        <v>108</v>
       </c>
       <c r="C6">
         <v>576007</v>
       </c>
       <c r="D6" t="s">
-        <v>90</v>
+        <v>109</v>
       </c>
       <c r="E6">
         <v>2023</v>
@@ -1466,16 +1843,16 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>83</v>
+        <v>102</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C7">
         <v>6503</v>
       </c>
       <c r="D7" t="s">
-        <v>91</v>
+        <v>110</v>
       </c>
       <c r="E7">
         <v>2023</v>
@@ -1483,16 +1860,16 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="B8" t="s">
-        <v>88</v>
+        <v>107</v>
       </c>
       <c r="C8">
         <v>-6487</v>
       </c>
       <c r="D8" t="s">
-        <v>91</v>
+        <v>110</v>
       </c>
       <c r="E8">
         <v>2023</v>
@@ -1500,16 +1877,16 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>85</v>
+        <v>104</v>
       </c>
       <c r="B9" t="s">
-        <v>88</v>
+        <v>107</v>
       </c>
       <c r="C9">
         <v>16</v>
       </c>
       <c r="D9" t="s">
-        <v>91</v>
+        <v>110</v>
       </c>
       <c r="E9">
         <v>2022</v>
@@ -1517,16 +1894,16 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>86</v>
+        <v>105</v>
       </c>
       <c r="B10" t="s">
-        <v>89</v>
+        <v>108</v>
       </c>
       <c r="C10">
         <v>53</v>
       </c>
       <c r="D10" t="s">
-        <v>91</v>
+        <v>110</v>
       </c>
       <c r="E10">
         <v>2023</v>
@@ -1534,16 +1911,16 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="B11" t="s">
-        <v>89</v>
+        <v>108</v>
       </c>
       <c r="C11">
         <v>69</v>
       </c>
       <c r="D11" t="s">
-        <v>91</v>
+        <v>110</v>
       </c>
       <c r="E11">
         <v>2023</v>
@@ -1551,16 +1928,16 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>83</v>
+        <v>102</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C12">
         <v>56068</v>
       </c>
       <c r="D12" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
       <c r="E12">
         <v>2023</v>
@@ -1568,16 +1945,16 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="B13" t="s">
-        <v>88</v>
+        <v>107</v>
       </c>
       <c r="C13">
         <v>-13992</v>
       </c>
       <c r="D13" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
       <c r="E13">
         <v>2023</v>
@@ -1585,16 +1962,16 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>85</v>
+        <v>104</v>
       </c>
       <c r="B14" t="s">
-        <v>88</v>
+        <v>107</v>
       </c>
       <c r="C14">
         <v>42076</v>
       </c>
       <c r="D14" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
       <c r="E14">
         <v>2022</v>
@@ -1602,16 +1979,16 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>86</v>
+        <v>105</v>
       </c>
       <c r="B15" t="s">
-        <v>89</v>
+        <v>108</v>
       </c>
       <c r="C15">
         <v>-17125</v>
       </c>
       <c r="D15" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
       <c r="E15">
         <v>2023</v>
@@ -1619,16 +1996,16 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="B16" t="s">
-        <v>89</v>
+        <v>108</v>
       </c>
       <c r="C16">
         <v>24951</v>
       </c>
       <c r="D16" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
       <c r="E16">
         <v>2023</v>
@@ -1636,16 +2013,16 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>83</v>
+        <v>102</v>
       </c>
       <c r="B17" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C17">
         <v>2094</v>
       </c>
       <c r="D17" t="s">
-        <v>93</v>
+        <v>112</v>
       </c>
       <c r="E17">
         <v>2023</v>
@@ -1653,16 +2030,16 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="B18" t="s">
-        <v>88</v>
+        <v>107</v>
       </c>
       <c r="C18">
         <v>2009</v>
       </c>
       <c r="D18" t="s">
-        <v>93</v>
+        <v>112</v>
       </c>
       <c r="E18">
         <v>2023</v>
@@ -1670,16 +2047,16 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>85</v>
+        <v>104</v>
       </c>
       <c r="B19" t="s">
-        <v>88</v>
+        <v>107</v>
       </c>
       <c r="C19">
         <v>4103</v>
       </c>
       <c r="D19" t="s">
-        <v>93</v>
+        <v>112</v>
       </c>
       <c r="E19">
         <v>2022</v>
@@ -1687,16 +2064,16 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>86</v>
+        <v>105</v>
       </c>
       <c r="B20" t="s">
-        <v>89</v>
+        <v>108</v>
       </c>
       <c r="C20">
         <v>1114</v>
       </c>
       <c r="D20" t="s">
-        <v>93</v>
+        <v>112</v>
       </c>
       <c r="E20">
         <v>2023</v>
@@ -1704,16 +2081,16 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="B21" t="s">
-        <v>89</v>
+        <v>108</v>
       </c>
       <c r="C21">
         <v>5217</v>
       </c>
       <c r="D21" t="s">
-        <v>93</v>
+        <v>112</v>
       </c>
       <c r="E21">
         <v>2023</v>
@@ -1721,16 +2098,16 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>83</v>
+        <v>102</v>
       </c>
       <c r="B22" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C22">
         <v>34550</v>
       </c>
       <c r="D22" t="s">
-        <v>94</v>
+        <v>113</v>
       </c>
       <c r="E22">
         <v>2023</v>
@@ -1738,16 +2115,16 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="B23" t="s">
-        <v>88</v>
+        <v>107</v>
       </c>
       <c r="C23">
         <v>-27857</v>
       </c>
       <c r="D23" t="s">
-        <v>94</v>
+        <v>113</v>
       </c>
       <c r="E23">
         <v>2023</v>
@@ -1755,16 +2132,16 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>85</v>
+        <v>104</v>
       </c>
       <c r="B24" t="s">
-        <v>88</v>
+        <v>107</v>
       </c>
       <c r="C24">
         <v>6693</v>
       </c>
       <c r="D24" t="s">
-        <v>94</v>
+        <v>113</v>
       </c>
       <c r="E24">
         <v>2022</v>
@@ -1772,16 +2149,16 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>86</v>
+        <v>105</v>
       </c>
       <c r="B25" t="s">
-        <v>89</v>
+        <v>108</v>
       </c>
       <c r="C25">
         <v>48026</v>
       </c>
       <c r="D25" t="s">
-        <v>94</v>
+        <v>113</v>
       </c>
       <c r="E25">
         <v>2023</v>
@@ -1789,16 +2166,16 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="B26" t="s">
-        <v>89</v>
+        <v>108</v>
       </c>
       <c r="C26">
         <v>54719</v>
       </c>
       <c r="D26" t="s">
-        <v>94</v>
+        <v>113</v>
       </c>
       <c r="E26">
         <v>2023</v>
@@ -1806,16 +2183,16 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>83</v>
+        <v>102</v>
       </c>
       <c r="B27" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C27">
         <v>398575</v>
       </c>
       <c r="D27" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="E27">
         <v>2023</v>
@@ -1823,16 +2200,16 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="B28" t="s">
-        <v>88</v>
+        <v>107</v>
       </c>
       <c r="C28">
         <v>201911</v>
       </c>
       <c r="D28" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="E28">
         <v>2023</v>
@@ -1840,16 +2217,16 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>85</v>
+        <v>104</v>
       </c>
       <c r="B29" t="s">
-        <v>88</v>
+        <v>107</v>
       </c>
       <c r="C29">
         <v>600486</v>
       </c>
       <c r="D29" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="E29">
         <v>2022</v>
@@ -1857,16 +2234,16 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>86</v>
+        <v>105</v>
       </c>
       <c r="B30" t="s">
-        <v>89</v>
+        <v>108</v>
       </c>
       <c r="C30">
         <v>60477</v>
       </c>
       <c r="D30" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="E30">
         <v>2023</v>
@@ -1874,16 +2251,16 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="B31" t="s">
-        <v>89</v>
+        <v>108</v>
       </c>
       <c r="C31">
         <v>660963</v>
       </c>
       <c r="D31" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="E31">
         <v>2023</v>
@@ -1916,245 +2293,245 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>95</v>
+        <v>114</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C2">
         <v>-879522</v>
       </c>
       <c r="D2" t="s">
-        <v>100</v>
+        <v>119</v>
       </c>
       <c r="E2" t="s">
-        <v>100</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>96</v>
+        <v>115</v>
       </c>
       <c r="B3" t="s">
-        <v>99</v>
+        <v>118</v>
       </c>
       <c r="C3">
         <v>576007</v>
       </c>
       <c r="D3" t="s">
-        <v>100</v>
+        <v>119</v>
       </c>
       <c r="E3" t="s">
-        <v>100</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>91</v>
+        <v>110</v>
       </c>
       <c r="B4" t="s">
-        <v>99</v>
+        <v>118</v>
       </c>
       <c r="C4">
         <v>69</v>
       </c>
       <c r="D4" t="s">
-        <v>100</v>
+        <v>119</v>
       </c>
       <c r="E4" t="s">
-        <v>100</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
       <c r="B5" t="s">
-        <v>99</v>
+        <v>118</v>
       </c>
       <c r="C5">
         <v>24951</v>
       </c>
       <c r="D5" t="s">
-        <v>100</v>
+        <v>119</v>
       </c>
       <c r="E5" t="s">
-        <v>100</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="B6" t="s">
-        <v>99</v>
+        <v>118</v>
       </c>
       <c r="C6">
         <v>5217</v>
       </c>
       <c r="D6" t="s">
-        <v>100</v>
+        <v>119</v>
       </c>
       <c r="E6" t="s">
-        <v>100</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="B7" t="s">
-        <v>99</v>
+        <v>118</v>
       </c>
       <c r="C7">
         <v>54719</v>
       </c>
       <c r="D7" t="s">
-        <v>100</v>
+        <v>119</v>
       </c>
       <c r="E7" t="s">
-        <v>100</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>99</v>
+        <v>118</v>
       </c>
       <c r="C8">
         <v>660963</v>
       </c>
       <c r="D8" t="s">
-        <v>100</v>
+        <v>119</v>
       </c>
       <c r="E8" t="s">
-        <v>100</v>
+        <v>119</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>95</v>
+        <v>114</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C9">
         <v>-891542</v>
       </c>
       <c r="D9" t="s">
-        <v>101</v>
+        <v>120</v>
       </c>
       <c r="E9" t="s">
-        <v>101</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>96</v>
+        <v>115</v>
       </c>
       <c r="B10" t="s">
-        <v>99</v>
+        <v>118</v>
       </c>
       <c r="C10">
         <v>547598</v>
       </c>
       <c r="D10" t="s">
-        <v>101</v>
+        <v>120</v>
       </c>
       <c r="E10" t="s">
-        <v>101</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>91</v>
+        <v>110</v>
       </c>
       <c r="B11" t="s">
-        <v>99</v>
+        <v>118</v>
       </c>
       <c r="C11">
         <v>16</v>
       </c>
       <c r="D11" t="s">
-        <v>101</v>
+        <v>120</v>
       </c>
       <c r="E11" t="s">
-        <v>101</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
       <c r="B12" t="s">
-        <v>99</v>
+        <v>118</v>
       </c>
       <c r="C12">
         <v>42076</v>
       </c>
       <c r="D12" t="s">
-        <v>101</v>
+        <v>120</v>
       </c>
       <c r="E12" t="s">
-        <v>101</v>
+        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="B13" t="s">
-        <v>99</v>
+        <v>118</v>
       </c>
       <c r="C13">
         <v>4103</v>
       </c>
       <c r="D13" t="s">
-        <v>101</v>
+        <v>120</v>
       </c>
       <c r="E13" t="s">
-        <v>101</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="B14" t="s">
-        <v>99</v>
+        <v>118</v>
       </c>
       <c r="C14">
         <v>6693</v>
       </c>
       <c r="D14" t="s">
-        <v>101</v>
+        <v>120</v>
       </c>
       <c r="E14" t="s">
-        <v>101</v>
+        <v>120</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>99</v>
+        <v>118</v>
       </c>
       <c r="C15">
         <v>600486</v>
       </c>
       <c r="D15" t="s">
-        <v>101</v>
+        <v>120</v>
       </c>
       <c r="E15" t="s">
-        <v>101</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -2175,13 +2552,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
@@ -2193,7 +2570,7 @@
         <v>3</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>4</v>
@@ -2201,19 +2578,19 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>102</v>
+        <v>121</v>
       </c>
       <c r="E2" t="s">
-        <v>129</v>
+        <v>148</v>
       </c>
       <c r="F2">
         <v>-1428373</v>
       </c>
       <c r="G2" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="H2" t="s">
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="I2">
         <v>2023</v>
@@ -2221,19 +2598,19 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>103</v>
+        <v>122</v>
       </c>
       <c r="E3" t="s">
-        <v>129</v>
+        <v>148</v>
       </c>
       <c r="F3">
         <v>-97757</v>
       </c>
       <c r="G3" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="H3" t="s">
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="I3">
         <v>2023</v>
@@ -2241,19 +2618,19 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>104</v>
+        <v>123</v>
       </c>
       <c r="E4" t="s">
-        <v>129</v>
+        <v>148</v>
       </c>
       <c r="F4">
         <v>-8986</v>
       </c>
       <c r="G4" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="H4" t="s">
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="I4">
         <v>2023</v>
@@ -2261,19 +2638,19 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="E5" t="s">
-        <v>129</v>
+        <v>148</v>
       </c>
       <c r="F5">
         <v>-5369</v>
       </c>
       <c r="G5" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="H5" t="s">
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="I5">
         <v>2023</v>
@@ -2281,19 +2658,19 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="E6" t="s">
-        <v>129</v>
+        <v>148</v>
       </c>
       <c r="F6">
         <v>-1540485</v>
       </c>
       <c r="G6" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="H6" t="s">
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="I6">
         <v>2023</v>
@@ -2301,28 +2678,28 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>106</v>
+        <v>125</v>
       </c>
       <c r="B7" t="s">
-        <v>111</v>
+        <v>130</v>
       </c>
       <c r="C7" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
       <c r="D7" t="s">
-        <v>123</v>
+        <v>142</v>
       </c>
       <c r="E7" t="s">
-        <v>129</v>
+        <v>148</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="H7" t="s">
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="I7">
         <v>2023</v>
@@ -2330,28 +2707,28 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>107</v>
+        <v>126</v>
       </c>
       <c r="B8" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="C8" t="s">
-        <v>118</v>
+        <v>137</v>
       </c>
       <c r="D8" t="s">
-        <v>124</v>
+        <v>143</v>
       </c>
       <c r="E8" t="s">
-        <v>129</v>
+        <v>148</v>
       </c>
       <c r="F8">
         <v>-52365</v>
       </c>
       <c r="G8" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="H8" t="s">
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="I8">
         <v>2023</v>
@@ -2359,28 +2736,28 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="B9" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="C9" t="s">
-        <v>119</v>
+        <v>138</v>
       </c>
       <c r="D9" t="s">
-        <v>125</v>
+        <v>144</v>
       </c>
       <c r="E9" t="s">
-        <v>130</v>
+        <v>149</v>
       </c>
       <c r="F9">
         <v>50804</v>
       </c>
       <c r="G9" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="H9" t="s">
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="I9">
         <v>2023</v>
@@ -2388,19 +2765,19 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>108</v>
+        <v>127</v>
       </c>
       <c r="E10" t="s">
-        <v>130</v>
+        <v>149</v>
       </c>
       <c r="F10">
         <v>-1204</v>
       </c>
       <c r="G10" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="H10" t="s">
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="I10">
         <v>2023</v>
@@ -2408,28 +2785,28 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>85</v>
+        <v>104</v>
       </c>
       <c r="B11" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="C11" t="s">
-        <v>120</v>
+        <v>139</v>
       </c>
       <c r="D11" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
       <c r="E11" t="s">
-        <v>130</v>
+        <v>149</v>
       </c>
       <c r="F11">
         <v>-2765</v>
       </c>
       <c r="G11" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="H11" t="s">
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="I11">
         <v>2023</v>
@@ -2437,28 +2814,28 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>86</v>
+        <v>105</v>
       </c>
       <c r="B12" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="C12" t="s">
-        <v>121</v>
+        <v>140</v>
       </c>
       <c r="D12" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
       <c r="E12" t="s">
-        <v>130</v>
+        <v>149</v>
       </c>
       <c r="F12">
         <v>1212</v>
       </c>
       <c r="G12" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="H12" t="s">
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="I12">
         <v>2023</v>
@@ -2466,19 +2843,19 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>109</v>
+        <v>128</v>
       </c>
       <c r="E13" t="s">
-        <v>130</v>
+        <v>149</v>
       </c>
       <c r="F13">
         <v>-3817</v>
       </c>
       <c r="G13" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="H13" t="s">
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="I13">
         <v>2023</v>
@@ -2486,28 +2863,28 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>110</v>
+        <v>129</v>
       </c>
       <c r="B14" t="s">
-        <v>116</v>
+        <v>135</v>
       </c>
       <c r="C14" t="s">
-        <v>122</v>
+        <v>141</v>
       </c>
       <c r="D14" t="s">
-        <v>128</v>
+        <v>147</v>
       </c>
       <c r="E14" t="s">
-        <v>130</v>
+        <v>149</v>
       </c>
       <c r="F14">
         <v>-5370</v>
       </c>
       <c r="G14" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="H14" t="s">
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="I14">
         <v>2023</v>
@@ -2515,19 +2892,19 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>102</v>
+        <v>121</v>
       </c>
       <c r="E15" t="s">
-        <v>129</v>
+        <v>148</v>
       </c>
       <c r="F15">
         <v>-1397972</v>
       </c>
       <c r="G15" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="H15" t="s">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="I15">
         <v>2022</v>
@@ -2535,19 +2912,19 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" t="s">
-        <v>103</v>
+        <v>122</v>
       </c>
       <c r="E16" t="s">
-        <v>129</v>
+        <v>148</v>
       </c>
       <c r="F16">
         <v>-84625</v>
       </c>
       <c r="G16" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="H16" t="s">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="I16">
         <v>2022</v>
@@ -2555,19 +2932,19 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>104</v>
+        <v>123</v>
       </c>
       <c r="E17" t="s">
-        <v>129</v>
+        <v>148</v>
       </c>
       <c r="F17">
         <v>-6667</v>
       </c>
       <c r="G17" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="H17" t="s">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="I17">
         <v>2022</v>
@@ -2575,19 +2952,19 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="E18" t="s">
-        <v>129</v>
+        <v>148</v>
       </c>
       <c r="F18">
         <v>-2764</v>
       </c>
       <c r="G18" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="H18" t="s">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="I18">
         <v>2022</v>
@@ -2595,19 +2972,19 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="E19" t="s">
-        <v>129</v>
+        <v>148</v>
       </c>
       <c r="F19">
         <v>-1492028</v>
       </c>
       <c r="G19" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="H19" t="s">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="I19">
         <v>2022</v>
@@ -2615,28 +2992,28 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" t="s">
-        <v>106</v>
+        <v>125</v>
       </c>
       <c r="B20" t="s">
-        <v>111</v>
+        <v>130</v>
       </c>
       <c r="C20" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
       <c r="D20" t="s">
-        <v>123</v>
+        <v>142</v>
       </c>
       <c r="E20" t="s">
-        <v>129</v>
+        <v>148</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="H20" t="s">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="I20">
         <v>2022</v>
@@ -2644,28 +3021,28 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21" t="s">
-        <v>107</v>
+        <v>126</v>
       </c>
       <c r="B21" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="C21" t="s">
-        <v>118</v>
+        <v>137</v>
       </c>
       <c r="D21" t="s">
-        <v>124</v>
+        <v>143</v>
       </c>
       <c r="E21" t="s">
-        <v>129</v>
+        <v>148</v>
       </c>
       <c r="F21">
         <v>-1300790</v>
       </c>
       <c r="G21" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="H21" t="s">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="I21">
         <v>2022</v>
@@ -2673,28 +3050,28 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" t="s">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="B22" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="C22" t="s">
-        <v>119</v>
+        <v>138</v>
       </c>
       <c r="D22" t="s">
-        <v>125</v>
+        <v>144</v>
       </c>
       <c r="E22" t="s">
-        <v>130</v>
+        <v>149</v>
       </c>
       <c r="F22">
         <v>-190034</v>
       </c>
       <c r="G22" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="H22" t="s">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="I22">
         <v>2022</v>
@@ -2702,19 +3079,19 @@
     </row>
     <row r="23" spans="1:9">
       <c r="A23" t="s">
-        <v>108</v>
+        <v>127</v>
       </c>
       <c r="E23" t="s">
-        <v>130</v>
+        <v>149</v>
       </c>
       <c r="F23">
         <v>-1204</v>
       </c>
       <c r="G23" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="H23" t="s">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="I23">
         <v>2022</v>
@@ -2722,28 +3099,28 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" t="s">
-        <v>85</v>
+        <v>104</v>
       </c>
       <c r="B24" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="C24" t="s">
-        <v>120</v>
+        <v>139</v>
       </c>
       <c r="D24" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
       <c r="E24" t="s">
-        <v>130</v>
+        <v>149</v>
       </c>
       <c r="F24">
         <v>-1492028</v>
       </c>
       <c r="G24" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="H24" t="s">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="I24">
         <v>2022</v>
@@ -2751,28 +3128,28 @@
     </row>
     <row r="25" spans="1:9">
       <c r="A25" t="s">
-        <v>86</v>
+        <v>105</v>
       </c>
       <c r="B25" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="C25" t="s">
-        <v>121</v>
+        <v>140</v>
       </c>
       <c r="D25" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
       <c r="E25" t="s">
-        <v>130</v>
+        <v>149</v>
       </c>
       <c r="F25">
         <v>-44640</v>
       </c>
       <c r="G25" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="H25" t="s">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="I25">
         <v>2022</v>
@@ -2780,19 +3157,19 @@
     </row>
     <row r="26" spans="1:9">
       <c r="A26" t="s">
-        <v>109</v>
+        <v>128</v>
       </c>
       <c r="E26" t="s">
-        <v>130</v>
+        <v>149</v>
       </c>
       <c r="F26">
         <v>-3817</v>
       </c>
       <c r="G26" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="H26" t="s">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="I26">
         <v>2022</v>
@@ -2800,28 +3177,28 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27" t="s">
-        <v>110</v>
+        <v>129</v>
       </c>
       <c r="B27" t="s">
-        <v>116</v>
+        <v>135</v>
       </c>
       <c r="C27" t="s">
-        <v>122</v>
+        <v>141</v>
       </c>
       <c r="D27" t="s">
-        <v>128</v>
+        <v>147</v>
       </c>
       <c r="E27" t="s">
-        <v>130</v>
+        <v>149</v>
       </c>
       <c r="F27">
         <v>-1540485</v>
       </c>
       <c r="G27" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="H27" t="s">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="I27">
         <v>2022</v>
@@ -2856,142 +3233,142 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>134</v>
+        <v>153</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>134</v>
+        <v>153</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>131</v>
+        <v>150</v>
       </c>
       <c r="B4" t="s">
-        <v>133</v>
+        <v>152</v>
       </c>
       <c r="C4">
         <v>4586150</v>
       </c>
       <c r="D4" t="s">
-        <v>134</v>
+        <v>153</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>132</v>
+        <v>151</v>
       </c>
       <c r="B5" t="s">
-        <v>133</v>
+        <v>152</v>
       </c>
       <c r="C5">
         <v>446000000</v>
       </c>
       <c r="D5" t="s">
-        <v>134</v>
+        <v>153</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>133</v>
+        <v>152</v>
       </c>
       <c r="C6">
         <v>450586150</v>
       </c>
       <c r="D6" t="s">
-        <v>134</v>
+        <v>153</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C7">
         <v>2022</v>
       </c>
       <c r="D7" t="s">
-        <v>134</v>
+        <v>153</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>134</v>
+        <v>153</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>131</v>
+        <v>150</v>
       </c>
       <c r="B9" t="s">
-        <v>133</v>
+        <v>152</v>
       </c>
       <c r="C9">
         <v>4586150</v>
       </c>
       <c r="D9" t="s">
-        <v>134</v>
+        <v>153</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>132</v>
+        <v>151</v>
       </c>
       <c r="B10" t="s">
-        <v>133</v>
+        <v>152</v>
       </c>
       <c r="C10">
         <v>446000000</v>
       </c>
       <c r="D10" t="s">
-        <v>134</v>
+        <v>153</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>133</v>
+        <v>152</v>
       </c>
       <c r="C11">
         <v>450586150</v>
       </c>
       <c r="D11" t="s">
-        <v>134</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -3062,16 +3439,16 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>135</v>
+        <v>154</v>
       </c>
       <c r="B2" t="s">
-        <v>138</v>
+        <v>157</v>
       </c>
       <c r="C2">
         <v>13300269</v>
       </c>
       <c r="D2" t="s">
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="E2">
         <v>2023</v>
@@ -3079,16 +3456,16 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>136</v>
+        <v>155</v>
       </c>
       <c r="B3" t="s">
-        <v>138</v>
+        <v>157</v>
       </c>
       <c r="C3">
         <v>61727</v>
       </c>
       <c r="D3" t="s">
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="E3">
         <v>2023</v>
@@ -3096,16 +3473,16 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>137</v>
+        <v>156</v>
       </c>
       <c r="B4" t="s">
-        <v>138</v>
+        <v>157</v>
       </c>
       <c r="C4">
         <v>27598</v>
       </c>
       <c r="D4" t="s">
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="E4">
         <v>2023</v>
@@ -3113,16 +3490,16 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>138</v>
+        <v>157</v>
       </c>
       <c r="C5">
         <v>13389594</v>
       </c>
       <c r="D5" t="s">
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="E5">
         <v>2023</v>
@@ -3130,16 +3507,16 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>135</v>
+        <v>154</v>
       </c>
       <c r="B6" t="s">
-        <v>138</v>
+        <v>157</v>
       </c>
       <c r="C6">
         <v>10353407</v>
       </c>
       <c r="D6" t="s">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="E6">
         <v>2022</v>
@@ -3147,16 +3524,16 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>136</v>
+        <v>155</v>
       </c>
       <c r="B7" t="s">
-        <v>138</v>
+        <v>157</v>
       </c>
       <c r="C7">
         <v>55900</v>
       </c>
       <c r="D7" t="s">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="E7">
         <v>2022</v>
@@ -3164,16 +3541,16 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>137</v>
+        <v>156</v>
       </c>
       <c r="B8" t="s">
-        <v>138</v>
+        <v>157</v>
       </c>
       <c r="C8">
         <v>48909</v>
       </c>
       <c r="D8" t="s">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="E8">
         <v>2022</v>
@@ -3181,16 +3558,16 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>138</v>
+        <v>157</v>
       </c>
       <c r="C9">
         <v>10458216</v>
       </c>
       <c r="D9" t="s">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="E9">
         <v>2022</v>
@@ -3276,13 +3653,13 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>139</v>
+        <v>158</v>
       </c>
       <c r="C2">
         <v>96</v>
       </c>
       <c r="D2" t="s">
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="E2">
         <v>2023</v>
@@ -3290,16 +3667,16 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
       <c r="B3" t="s">
-        <v>142</v>
+        <v>161</v>
       </c>
       <c r="C3">
         <v>64957</v>
       </c>
       <c r="D3" t="s">
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="E3">
         <v>2023</v>
@@ -3307,16 +3684,16 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>141</v>
+        <v>160</v>
       </c>
       <c r="B4" t="s">
-        <v>142</v>
+        <v>161</v>
       </c>
       <c r="C4">
         <v>14699</v>
       </c>
       <c r="D4" t="s">
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="E4">
         <v>2023</v>
@@ -3324,16 +3701,16 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>142</v>
+        <v>161</v>
       </c>
       <c r="C5">
         <v>79752</v>
       </c>
       <c r="D5" t="s">
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="E5">
         <v>2023</v>
@@ -3341,13 +3718,13 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>139</v>
+        <v>158</v>
       </c>
       <c r="C6">
         <v>48</v>
       </c>
       <c r="D6" t="s">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="E6">
         <v>2022</v>
@@ -3355,16 +3732,16 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
       <c r="B7" t="s">
-        <v>142</v>
+        <v>161</v>
       </c>
       <c r="C7">
         <v>4890</v>
       </c>
       <c r="D7" t="s">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="E7">
         <v>2022</v>
@@ -3372,16 +3749,16 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>141</v>
+        <v>160</v>
       </c>
       <c r="B8" t="s">
-        <v>142</v>
+        <v>161</v>
       </c>
       <c r="C8">
         <v>992</v>
       </c>
       <c r="D8" t="s">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="E8">
         <v>2022</v>
@@ -3389,16 +3766,16 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>142</v>
+        <v>161</v>
       </c>
       <c r="C9">
         <v>5930</v>
       </c>
       <c r="D9" t="s">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="E9">
         <v>2022</v>
@@ -3423,24 +3800,400 @@
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C2">
+        <v>-264231</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C3">
+        <v>-13772</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>164</v>
+      </c>
+      <c r="B4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C4">
+        <v>-1913</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>165</v>
+      </c>
+      <c r="B5" t="s">
+        <v>167</v>
+      </c>
+      <c r="C5">
+        <v>-10535</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>166</v>
+      </c>
+      <c r="B6" t="s">
+        <v>167</v>
+      </c>
+      <c r="C6">
+        <v>-8129</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>167</v>
+      </c>
+      <c r="C7">
+        <v>-298580</v>
+      </c>
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>162</v>
+      </c>
+      <c r="B8" t="s">
+        <v>167</v>
+      </c>
+      <c r="C8">
+        <v>-132483</v>
+      </c>
+      <c r="D8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>163</v>
+      </c>
+      <c r="B9" t="s">
+        <v>167</v>
+      </c>
+      <c r="C9">
+        <v>1118</v>
+      </c>
+      <c r="D9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>164</v>
+      </c>
+      <c r="B10" t="s">
+        <v>167</v>
+      </c>
+      <c r="C10">
+        <v>-17828</v>
+      </c>
+      <c r="D10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>165</v>
+      </c>
+      <c r="B11" t="s">
+        <v>167</v>
+      </c>
+      <c r="C11">
+        <v>-9702</v>
+      </c>
+      <c r="D11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>166</v>
+      </c>
+      <c r="B12" t="s">
+        <v>167</v>
+      </c>
+      <c r="C12">
+        <v>1371</v>
+      </c>
+      <c r="D12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" t="s">
+        <v>167</v>
+      </c>
+      <c r="C13">
+        <v>-157524</v>
+      </c>
+      <c r="D13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13">
+        <v>2022</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2">
+        <v>1167319</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3">
+        <v>8815</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4">
+        <v>55783</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5">
+        <v>1231917</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6">
+        <v>2129708</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7">
+        <v>49145</v>
+      </c>
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8">
+        <v>33951</v>
+      </c>
+      <c r="D8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9">
+        <v>2212804</v>
+      </c>
+      <c r="D9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9">
+        <v>2022</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3484,16 +4237,16 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C2">
         <v>7621</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="E2">
         <v>2023</v>
@@ -3501,16 +4254,16 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>2023</v>
@@ -3518,16 +4271,16 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>2023</v>
@@ -3535,16 +4288,16 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C5">
         <v>-1475</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <v>2023</v>
@@ -3552,16 +4305,16 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C6">
         <v>6146</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>2022</v>
@@ -3569,16 +4322,16 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>2023</v>
@@ -3586,16 +4339,16 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>2023</v>
@@ -3603,16 +4356,16 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C9">
         <v>-1475</v>
       </c>
       <c r="D9" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>2023</v>
@@ -3620,16 +4373,16 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C10">
         <v>4671</v>
       </c>
       <c r="D10" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="E10">
         <v>2023</v>
@@ -3637,16 +4390,16 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C11">
         <v>109924</v>
       </c>
       <c r="D11" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="E11">
         <v>2023</v>
@@ -3654,16 +4407,16 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C12">
         <v>212331</v>
       </c>
       <c r="D12" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="E12">
         <v>2023</v>
@@ -3671,16 +4424,16 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C13">
         <v>-2613</v>
       </c>
       <c r="D13" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="E13">
         <v>2023</v>
@@ -3688,16 +4441,16 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C14">
         <v>-87787</v>
       </c>
       <c r="D14" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="E14">
         <v>2023</v>
@@ -3705,16 +4458,16 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C15">
         <v>231855</v>
       </c>
       <c r="D15" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="E15">
         <v>2022</v>
@@ -3722,16 +4475,16 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C16">
         <v>195193</v>
       </c>
       <c r="D16" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="E16">
         <v>2023</v>
@@ -3739,16 +4492,16 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C17">
         <v>-114827</v>
       </c>
       <c r="D17" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="E17">
         <v>2023</v>
@@ -3756,16 +4509,16 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C18">
         <v>-81186</v>
       </c>
       <c r="D18" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="E18">
         <v>2023</v>
@@ -3773,16 +4526,16 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C19">
         <v>231035</v>
       </c>
       <c r="D19" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="E19">
         <v>2023</v>
@@ -3790,16 +4543,16 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B20" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C20">
         <v>117545</v>
       </c>
       <c r="D20" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="E20">
         <v>2023</v>
@@ -3807,16 +4560,16 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B21" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C21">
         <v>212331</v>
       </c>
       <c r="D21" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="E21">
         <v>2023</v>
@@ -3824,16 +4577,16 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="B22" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C22">
         <v>-2613</v>
       </c>
       <c r="D22" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="E22">
         <v>2023</v>
@@ -3841,16 +4594,16 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="B23" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C23">
         <v>-89262</v>
       </c>
       <c r="D23" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="E23">
         <v>2023</v>
@@ -3858,16 +4611,16 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B24" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C24">
         <v>238001</v>
       </c>
       <c r="D24" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="E24">
         <v>2022</v>
@@ -3875,16 +4628,16 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B25" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C25">
         <v>195193</v>
       </c>
       <c r="D25" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="E25">
         <v>2023</v>
@@ -3892,16 +4645,16 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="B26" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C26">
         <v>-114827</v>
       </c>
       <c r="D26" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="E26">
         <v>2023</v>
@@ -3909,16 +4662,16 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="B27" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C27">
         <v>-82661</v>
       </c>
       <c r="D27" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="E27">
         <v>2023</v>
@@ -3926,16 +4679,16 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B28" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C28">
         <v>235706</v>
       </c>
       <c r="D28" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="E28">
         <v>2023</v>
@@ -3959,16 +4712,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>1</v>
@@ -3980,7 +4733,7 @@
         <v>3</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>4</v>
@@ -3988,19 +4741,19 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="F2" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="G2">
         <v>13418476</v>
       </c>
       <c r="H2" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="I2" t="s">
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="J2">
         <v>2023</v>
@@ -4008,19 +4761,19 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="F3" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="G3">
         <v>-5642496</v>
       </c>
       <c r="H3" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="I3" t="s">
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="J3">
         <v>2023</v>
@@ -4028,19 +4781,19 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="F4" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="G4">
         <v>7775980</v>
       </c>
       <c r="H4" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="I4" t="s">
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="J4">
         <v>2023</v>
@@ -4048,19 +4801,19 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="F5" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="I5" t="s">
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="J5">
         <v>2023</v>
@@ -4068,19 +4821,19 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="F6" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="G6">
         <v>-632760</v>
       </c>
       <c r="H6" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="I6" t="s">
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="J6">
         <v>2023</v>
@@ -4088,19 +4841,19 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="F7" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="G7">
         <v>564265</v>
       </c>
       <c r="H7" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="I7" t="s">
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="J7">
         <v>2023</v>
@@ -4108,19 +4861,19 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="F8" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="G8">
         <v>1213340</v>
       </c>
       <c r="H8" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="I8" t="s">
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="J8">
         <v>2023</v>
@@ -4128,19 +4881,19 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="F9" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="G9">
         <v>-774366</v>
       </c>
       <c r="H9" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="I9" t="s">
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="J9">
         <v>2023</v>
@@ -4148,19 +4901,19 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="F10" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="G10">
         <v>438974</v>
       </c>
       <c r="H10" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="I10" t="s">
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="J10">
         <v>2023</v>
@@ -4168,19 +4921,19 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="F11" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="G11">
         <v>1032233</v>
       </c>
       <c r="H11" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="I11" t="s">
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="J11">
         <v>2023</v>
@@ -4188,19 +4941,19 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="F12" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="G12">
         <v>1277907</v>
       </c>
       <c r="H12" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="I12" t="s">
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="J12">
         <v>2023</v>
@@ -4208,19 +4961,19 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="F13" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="G13">
         <v>11089359</v>
       </c>
       <c r="H13" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="I13" t="s">
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="J13">
         <v>2023</v>
@@ -4228,28 +4981,28 @@
     </row>
     <row r="14" spans="1:10">
       <c r="B14" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C14" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="D14" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="E14" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="F14" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="I14" t="s">
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="J14">
         <v>2023</v>
@@ -4257,28 +5010,28 @@
     </row>
     <row r="15" spans="1:10">
       <c r="B15" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="C15" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="D15" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="E15" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="F15" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="I15" t="s">
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="J15">
         <v>2023</v>
@@ -4286,31 +5039,31 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="B16" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="C16" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="D16" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="E16" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="F16" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="G16">
         <v>503375</v>
       </c>
       <c r="H16" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="I16" t="s">
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="J16">
         <v>2023</v>
@@ -4318,28 +5071,28 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="D17" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="E17" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="F17" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="G17">
         <v>60159</v>
       </c>
       <c r="H17" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="I17" t="s">
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="J17">
         <v>2023</v>
@@ -4347,22 +5100,22 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="B18" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="F18" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="I18" t="s">
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="J18">
         <v>2023</v>
@@ -4370,22 +5123,22 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="B19" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="F19" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="I19" t="s">
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="J19">
         <v>2023</v>
@@ -4393,22 +5146,22 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="B20" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="F20" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="G20">
         <v>-7805</v>
       </c>
       <c r="H20" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="I20" t="s">
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="J20">
         <v>2023</v>
@@ -4416,25 +5169,25 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="B21" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="C21" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="F21" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="G21">
         <v>-85388</v>
       </c>
       <c r="H21" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="I21" t="s">
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="J21">
         <v>2023</v>
@@ -4442,31 +5195,31 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B22" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="C22" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="D22" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="E22" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="F22" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="G22">
         <v>470341</v>
       </c>
       <c r="H22" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="I22" t="s">
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="J22">
         <v>2023</v>
@@ -4474,25 +5227,25 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B23" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="D23" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="F23" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="G23">
         <v>53437</v>
       </c>
       <c r="H23" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="I23" t="s">
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="J23">
         <v>2023</v>
@@ -4500,25 +5253,25 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="B24" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="D24" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="F24" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="I24" t="s">
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="J24">
         <v>2023</v>
@@ -4526,22 +5279,22 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="B25" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="F25" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="I25" t="s">
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="J25">
         <v>2023</v>
@@ -4549,22 +5302,22 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="B26" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="F26" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="G26">
         <v>0</v>
       </c>
       <c r="H26" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="I26" t="s">
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="J26">
         <v>2023</v>
@@ -4572,25 +5325,25 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="B27" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="C27" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="F27" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="G27">
         <v>-84804</v>
       </c>
       <c r="H27" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="I27" t="s">
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="J27">
         <v>2023</v>
@@ -4598,22 +5351,22 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="B28" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="F28" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="G28">
         <v>0</v>
       </c>
       <c r="H28" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="I28" t="s">
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="J28">
         <v>2023</v>
@@ -4621,31 +5374,31 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B29" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="C29" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="D29" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="E29" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="F29" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="G29">
         <v>438974</v>
       </c>
       <c r="H29" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="I29" t="s">
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="J29">
         <v>2023</v>
@@ -4653,19 +5406,19 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="F30" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="G30">
         <v>12923840</v>
       </c>
       <c r="H30" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="I30" t="s">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="J30">
         <v>2022</v>
@@ -4673,19 +5426,19 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="F31" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="G31">
         <v>-5134699</v>
       </c>
       <c r="H31" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="I31" t="s">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="J31">
         <v>2022</v>
@@ -4693,19 +5446,19 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="F32" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="G32">
         <v>7789141</v>
       </c>
       <c r="H32" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="I32" t="s">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="J32">
         <v>2022</v>
@@ -4713,19 +5466,19 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="F33" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="G33">
         <v>1197025</v>
       </c>
       <c r="H33" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="I33" t="s">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="J33">
         <v>2022</v>
@@ -4733,19 +5486,19 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="F34" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="G34">
         <v>-608970</v>
       </c>
       <c r="H34" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="I34" t="s">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="J34">
         <v>2022</v>
@@ -4753,19 +5506,19 @@
     </row>
     <row r="35" spans="1:10">
       <c r="A35" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="F35" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="G35">
         <v>588055</v>
       </c>
       <c r="H35" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="I35" t="s">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="J35">
         <v>2022</v>
@@ -4773,19 +5526,19 @@
     </row>
     <row r="36" spans="1:10">
       <c r="A36" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="F36" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="G36">
         <v>1159903</v>
       </c>
       <c r="H36" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="I36" t="s">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="J36">
         <v>2022</v>
@@ -4793,19 +5546,19 @@
     </row>
     <row r="37" spans="1:10">
       <c r="A37" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="F37" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="G37">
         <v>-689562</v>
       </c>
       <c r="H37" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="I37" t="s">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="J37">
         <v>2022</v>
@@ -4813,19 +5566,19 @@
     </row>
     <row r="38" spans="1:10">
       <c r="A38" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="F38" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="G38">
         <v>470341</v>
       </c>
       <c r="H38" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="I38" t="s">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="J38">
         <v>2022</v>
@@ -4833,19 +5586,19 @@
     </row>
     <row r="39" spans="1:10">
       <c r="A39" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="F39" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="G39">
         <v>775179</v>
       </c>
       <c r="H39" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="I39" t="s">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="J39">
         <v>2022</v>
@@ -4853,19 +5606,19 @@
     </row>
     <row r="40" spans="1:10">
       <c r="A40" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="F40" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="G40">
         <v>1277906</v>
       </c>
       <c r="H40" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="I40" t="s">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="J40">
         <v>2022</v>
@@ -4873,19 +5626,19 @@
     </row>
     <row r="41" spans="1:10">
       <c r="A41" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="F41" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="G41">
         <v>10900622</v>
       </c>
       <c r="H41" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="I41" t="s">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="J41">
         <v>2022</v>
@@ -4893,28 +5646,28 @@
     </row>
     <row r="42" spans="1:10">
       <c r="B42" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C42" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="D42" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="E42" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="F42" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="G42">
         <v>0</v>
       </c>
       <c r="H42" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="I42" t="s">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="J42">
         <v>2022</v>
@@ -4922,28 +5675,28 @@
     </row>
     <row r="43" spans="1:10">
       <c r="B43" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="C43" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="D43" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="E43" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="F43" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="G43">
         <v>0</v>
       </c>
       <c r="H43" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="I43" t="s">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="J43">
         <v>2022</v>
@@ -4951,31 +5704,31 @@
     </row>
     <row r="44" spans="1:10">
       <c r="A44" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="B44" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="C44" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="D44" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="E44" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="F44" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="G44">
         <v>10025990</v>
       </c>
       <c r="H44" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="I44" t="s">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="J44">
         <v>2022</v>
@@ -4983,28 +5736,28 @@
     </row>
     <row r="45" spans="1:10">
       <c r="A45" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B45" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="D45" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="E45" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="F45" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="G45">
         <v>724087</v>
       </c>
       <c r="H45" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="I45" t="s">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="J45">
         <v>2022</v>
@@ -5012,22 +5765,22 @@
     </row>
     <row r="46" spans="1:10">
       <c r="A46" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="B46" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="F46" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="G46">
         <v>-1223</v>
       </c>
       <c r="H46" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="I46" t="s">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="J46">
         <v>2022</v>
@@ -5035,22 +5788,22 @@
     </row>
     <row r="47" spans="1:10">
       <c r="A47" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="B47" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="F47" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="G47">
         <v>796530</v>
       </c>
       <c r="H47" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="I47" t="s">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="J47">
         <v>2022</v>
@@ -5058,22 +5811,22 @@
     </row>
     <row r="48" spans="1:10">
       <c r="A48" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="B48" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="F48" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="G48">
         <v>-17828</v>
       </c>
       <c r="H48" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="I48" t="s">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="J48">
         <v>2022</v>
@@ -5081,25 +5834,25 @@
     </row>
     <row r="49" spans="1:10">
       <c r="A49" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="B49" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="C49" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="F49" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="G49">
         <v>-626934</v>
       </c>
       <c r="H49" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="I49" t="s">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="J49">
         <v>2022</v>
@@ -5107,31 +5860,31 @@
     </row>
     <row r="50" spans="1:10">
       <c r="A50" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B50" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="C50" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="D50" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="E50" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="F50" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="G50">
         <v>10900622</v>
       </c>
       <c r="H50" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="I50" t="s">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="J50">
         <v>2022</v>
@@ -5139,25 +5892,25 @@
     </row>
     <row r="51" spans="1:10">
       <c r="A51" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B51" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="D51" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="F51" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="G51">
         <v>745003</v>
       </c>
       <c r="H51" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="I51" t="s">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="J51">
         <v>2022</v>
@@ -5165,25 +5918,25 @@
     </row>
     <row r="52" spans="1:10">
       <c r="A52" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="B52" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="D52" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="F52" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="G52">
         <v>-18007</v>
       </c>
       <c r="H52" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="I52" t="s">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="J52">
         <v>2022</v>
@@ -5191,22 +5944,22 @@
     </row>
     <row r="53" spans="1:10">
       <c r="A53" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="B53" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="F53" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="G53">
         <v>32778</v>
       </c>
       <c r="H53" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="I53" t="s">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="J53">
         <v>2022</v>
@@ -5214,22 +5967,22 @@
     </row>
     <row r="54" spans="1:10">
       <c r="A54" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="B54" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="F54" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="G54">
         <v>-1913</v>
       </c>
       <c r="H54" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="I54" t="s">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="J54">
         <v>2022</v>
@@ -5237,25 +5990,25 @@
     </row>
     <row r="55" spans="1:10">
       <c r="A55" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="B55" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="C55" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="F55" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="G55">
         <v>-663962</v>
       </c>
       <c r="H55" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="I55" t="s">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="J55">
         <v>2022</v>
@@ -5263,22 +6016,22 @@
     </row>
     <row r="56" spans="1:10">
       <c r="A56" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="B56" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="F56" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="G56">
         <v>94838</v>
       </c>
       <c r="H56" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="I56" t="s">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="J56">
         <v>2022</v>
@@ -5286,31 +6039,31 @@
     </row>
     <row r="57" spans="1:10">
       <c r="A57" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B57" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="C57" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="D57" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="E57" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="F57" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="G57">
         <v>11089359</v>
       </c>
       <c r="H57" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="I57" t="s">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="J57">
         <v>2022</v>
@@ -5323,15 +6076,95 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2">
+        <v>16630</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C3">
+        <v>-24879</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4">
+        <v>22295</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5">
+        <v>2022</v>
       </c>
     </row>
   </sheetData>
@@ -5341,15 +6174,95 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C2">
+        <v>2248000</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C3">
+        <v>2248000</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C4">
+        <v>3752000</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C5">
+        <v>3752000</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5">
+        <v>2022</v>
       </c>
     </row>
   </sheetData>
@@ -5359,15 +6272,129 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2">
+        <v>16373</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C3">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C4">
+        <v>16377</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C5">
+        <v>14179</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C7">
+        <v>14183</v>
+      </c>
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7">
+        <v>2022</v>
       </c>
     </row>
   </sheetData>

--- a/LOGS/9dc3e434-32dc-4aee-9ff6-bf06b0d787bb/main_page_service_output/notes_standard_cropped_df.xlsx
+++ b/LOGS/9dc3e434-32dc-4aee-9ff6-bf06b0d787bb/main_page_service_output/notes_standard_cropped_df.xlsx
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1055" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1139" uniqueCount="179">
   <si>
     <t>line_item_0</t>
   </si>
@@ -387,6 +387,9 @@
     <t>Leases liabilities</t>
   </si>
   <si>
+    <t>header_col_2</t>
+  </si>
+  <si>
     <t>Deferred tax liabilities, net</t>
   </si>
   <si>
@@ -531,6 +534,27 @@
     <t>Interest received or due and from:</t>
   </si>
   <si>
+    <t>Management fees</t>
+  </si>
+  <si>
+    <t>Head office administration expenses</t>
+  </si>
+  <si>
+    <t>Service fee expense</t>
+  </si>
+  <si>
+    <t>Employee related costs</t>
+  </si>
+  <si>
+    <t>service fees</t>
+  </si>
+  <si>
+    <t>Audit fees</t>
+  </si>
+  <si>
+    <t>ADMINISTRATION EXPENSES</t>
+  </si>
+  <si>
     <t>Net foreign exchange loss</t>
   </si>
   <si>
@@ -547,6 +571,15 @@
   </si>
   <si>
     <t>OTHER EXPENSES</t>
+  </si>
+  <si>
+    <t>Unwinding of discounts on provisions (note 24)</t>
+  </si>
+  <si>
+    <t>Interest - Lease liabilities (note 19)</t>
+  </si>
+  <si>
+    <t>FINANCE COSTS</t>
   </si>
 </sst>
 </file>
@@ -2273,13 +2306,13 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2295,243 +2328,327 @@
       <c r="E1" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>114</v>
-      </c>
-      <c r="B2" t="s">
-        <v>20</v>
+        <v>115</v>
       </c>
       <c r="C2">
         <v>-879522</v>
       </c>
       <c r="D2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B3" t="s">
         <v>119</v>
-      </c>
-      <c r="E2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>115</v>
-      </c>
-      <c r="B3" t="s">
-        <v>118</v>
       </c>
       <c r="C3">
         <v>576007</v>
       </c>
       <c r="D3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E3" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>120</v>
+      </c>
+      <c r="F3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>110</v>
       </c>
       <c r="B4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C4">
         <v>69</v>
       </c>
       <c r="D4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E4" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>120</v>
+      </c>
+      <c r="F4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>111</v>
       </c>
       <c r="B5" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C5">
         <v>24951</v>
       </c>
       <c r="D5" t="s">
+        <v>120</v>
+      </c>
+      <c r="E5" t="s">
+        <v>120</v>
+      </c>
+      <c r="F5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>117</v>
+      </c>
+      <c r="B6" t="s">
         <v>119</v>
-      </c>
-      <c r="E5" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>116</v>
-      </c>
-      <c r="B6" t="s">
-        <v>118</v>
       </c>
       <c r="C6">
         <v>5217</v>
       </c>
       <c r="D6" t="s">
+        <v>120</v>
+      </c>
+      <c r="E6" t="s">
+        <v>120</v>
+      </c>
+      <c r="F6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>118</v>
+      </c>
+      <c r="B7" t="s">
         <v>119</v>
-      </c>
-      <c r="E6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
-        <v>117</v>
-      </c>
-      <c r="B7" t="s">
-        <v>118</v>
       </c>
       <c r="C7">
         <v>54719</v>
       </c>
       <c r="D7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E7" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>120</v>
+      </c>
+      <c r="F7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C8">
         <v>660963</v>
       </c>
       <c r="D8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E8" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>120</v>
+      </c>
+      <c r="F8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>114</v>
-      </c>
-      <c r="B9" t="s">
-        <v>20</v>
+        <v>115</v>
       </c>
       <c r="C9">
         <v>-891542</v>
       </c>
       <c r="D9" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E9" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>121</v>
+      </c>
+      <c r="F9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B10" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C10">
         <v>547598</v>
       </c>
       <c r="D10" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E10" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>121</v>
+      </c>
+      <c r="F10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
         <v>110</v>
       </c>
       <c r="B11" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C11">
         <v>16</v>
       </c>
       <c r="D11" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E11" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>121</v>
+      </c>
+      <c r="F11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
         <v>111</v>
       </c>
       <c r="B12" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C12">
         <v>42076</v>
       </c>
       <c r="D12" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E12" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>121</v>
+      </c>
+      <c r="F12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B13" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C13">
         <v>4103</v>
       </c>
       <c r="D13" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E13" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>121</v>
+      </c>
+      <c r="F13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B14" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C14">
         <v>6693</v>
       </c>
       <c r="D14" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E14" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>121</v>
+      </c>
+      <c r="F14" t="s">
+        <v>9</v>
+      </c>
+      <c r="G14">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
         <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C15">
         <v>600486</v>
       </c>
       <c r="D15" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E15" t="s">
-        <v>120</v>
+        <v>121</v>
+      </c>
+      <c r="F15" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15">
+        <v>2022</v>
       </c>
     </row>
   </sheetData>
@@ -2578,10 +2695,10 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F2">
         <v>-1428373</v>
@@ -2598,10 +2715,10 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F3">
         <v>-97757</v>
@@ -2618,10 +2735,10 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F4">
         <v>-8986</v>
@@ -2638,10 +2755,10 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F5">
         <v>-5369</v>
@@ -2661,7 +2778,7 @@
         <v>6</v>
       </c>
       <c r="E6" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F6">
         <v>-1540485</v>
@@ -2678,19 +2795,19 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -2707,19 +2824,19 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B8" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C8" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D8" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E8" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F8">
         <v>-52365</v>
@@ -2739,16 +2856,16 @@
         <v>103</v>
       </c>
       <c r="B9" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C9" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D9" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E9" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F9">
         <v>50804</v>
@@ -2765,10 +2882,10 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E10" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F10">
         <v>-1204</v>
@@ -2788,16 +2905,16 @@
         <v>104</v>
       </c>
       <c r="B11" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C11" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D11" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E11" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F11">
         <v>-2765</v>
@@ -2817,16 +2934,16 @@
         <v>105</v>
       </c>
       <c r="B12" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C12" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D12" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E12" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F12">
         <v>1212</v>
@@ -2843,10 +2960,10 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E13" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F13">
         <v>-3817</v>
@@ -2863,19 +2980,19 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B14" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C14" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D14" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E14" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F14">
         <v>-5370</v>
@@ -2892,10 +3009,10 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E15" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F15">
         <v>-1397972</v>
@@ -2912,10 +3029,10 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E16" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F16">
         <v>-84625</v>
@@ -2932,10 +3049,10 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E17" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F17">
         <v>-6667</v>
@@ -2952,10 +3069,10 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E18" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F18">
         <v>-2764</v>
@@ -2975,7 +3092,7 @@
         <v>6</v>
       </c>
       <c r="E19" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F19">
         <v>-1492028</v>
@@ -2992,19 +3109,19 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B20" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C20" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D20" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E20" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -3021,19 +3138,19 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B21" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C21" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D21" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E21" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F21">
         <v>-1300790</v>
@@ -3053,16 +3170,16 @@
         <v>103</v>
       </c>
       <c r="B22" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C22" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D22" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E22" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F22">
         <v>-190034</v>
@@ -3079,10 +3196,10 @@
     </row>
     <row r="23" spans="1:9">
       <c r="A23" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E23" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F23">
         <v>-1204</v>
@@ -3102,16 +3219,16 @@
         <v>104</v>
       </c>
       <c r="B24" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C24" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D24" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E24" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F24">
         <v>-1492028</v>
@@ -3131,16 +3248,16 @@
         <v>105</v>
       </c>
       <c r="B25" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C25" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D25" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E25" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F25">
         <v>-44640</v>
@@ -3157,10 +3274,10 @@
     </row>
     <row r="26" spans="1:9">
       <c r="A26" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E26" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F26">
         <v>-3817</v>
@@ -3177,19 +3294,19 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B27" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C27" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D27" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E27" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F27">
         <v>-1540485</v>
@@ -3242,7 +3359,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -3256,35 +3373,35 @@
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B4" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C4">
         <v>4586150</v>
       </c>
       <c r="D4" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B5" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C5">
         <v>446000000</v>
       </c>
       <c r="D5" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -3292,13 +3409,13 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C6">
         <v>450586150</v>
       </c>
       <c r="D6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -3312,7 +3429,7 @@
         <v>2022</v>
       </c>
       <c r="D7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -3326,35 +3443,35 @@
         <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B9" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C9">
         <v>4586150</v>
       </c>
       <c r="D9" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B10" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C10">
         <v>446000000</v>
       </c>
       <c r="D10" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -3362,13 +3479,13 @@
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C11">
         <v>450586150</v>
       </c>
       <c r="D11" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -3439,10 +3556,10 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C2">
         <v>13300269</v>
@@ -3456,10 +3573,10 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C3">
         <v>61727</v>
@@ -3473,10 +3590,10 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B4" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C4">
         <v>27598</v>
@@ -3493,7 +3610,7 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C5">
         <v>13389594</v>
@@ -3507,10 +3624,10 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B6" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C6">
         <v>10353407</v>
@@ -3524,10 +3641,10 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C7">
         <v>55900</v>
@@ -3541,10 +3658,10 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B8" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C8">
         <v>48909</v>
@@ -3561,7 +3678,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C9">
         <v>10458216</v>
@@ -3653,7 +3770,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C2">
         <v>96</v>
@@ -3667,10 +3784,10 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C3">
         <v>64957</v>
@@ -3684,10 +3801,10 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B4" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C4">
         <v>14699</v>
@@ -3704,7 +3821,7 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C5">
         <v>79752</v>
@@ -3718,7 +3835,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C6">
         <v>48</v>
@@ -3732,10 +3849,10 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C7">
         <v>4890</v>
@@ -3749,10 +3866,10 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B8" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C8">
         <v>992</v>
@@ -3769,7 +3886,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C9">
         <v>5930</v>
@@ -3788,12 +3905,268 @@
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C2">
+        <v>254397</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C3">
+        <v>17864</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>165</v>
+      </c>
+      <c r="B4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C4">
+        <v>14431</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>166</v>
+      </c>
+      <c r="B5" t="s">
+        <v>169</v>
+      </c>
+      <c r="C5">
+        <v>21031</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>167</v>
+      </c>
+      <c r="B6" t="s">
+        <v>169</v>
+      </c>
+      <c r="C6">
+        <v>12611</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>168</v>
+      </c>
+      <c r="B7" t="s">
+        <v>169</v>
+      </c>
+      <c r="C7">
+        <v>1697</v>
+      </c>
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>169</v>
+      </c>
+      <c r="C8">
+        <v>322031</v>
+      </c>
+      <c r="D8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>163</v>
+      </c>
+      <c r="B9" t="s">
+        <v>169</v>
+      </c>
+      <c r="C9">
+        <v>270782</v>
+      </c>
+      <c r="D9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>164</v>
+      </c>
+      <c r="B10" t="s">
+        <v>169</v>
+      </c>
+      <c r="C10">
+        <v>13253</v>
+      </c>
+      <c r="D10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>165</v>
+      </c>
+      <c r="B11" t="s">
+        <v>169</v>
+      </c>
+      <c r="C11">
+        <v>16610</v>
+      </c>
+      <c r="D11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>166</v>
+      </c>
+      <c r="B12" t="s">
+        <v>169</v>
+      </c>
+      <c r="C12">
+        <v>12493</v>
+      </c>
+      <c r="D12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>167</v>
+      </c>
+      <c r="B13" t="s">
+        <v>169</v>
+      </c>
+      <c r="C13">
+        <v>6196</v>
+      </c>
+      <c r="D13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>168</v>
+      </c>
+      <c r="B14" t="s">
+        <v>169</v>
+      </c>
+      <c r="C14">
+        <v>1611</v>
+      </c>
+      <c r="D14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" t="s">
+        <v>169</v>
+      </c>
+      <c r="C15">
+        <v>320945</v>
+      </c>
+      <c r="D15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15">
+        <v>2022</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3825,10 +4198,10 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="B2" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="C2">
         <v>-264231</v>
@@ -3842,10 +4215,10 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="B3" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="C3">
         <v>-13772</v>
@@ -3859,10 +4232,10 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="B4" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="C4">
         <v>-1913</v>
@@ -3876,10 +4249,10 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="B5" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="C5">
         <v>-10535</v>
@@ -3893,10 +4266,10 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="B6" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="C6">
         <v>-8129</v>
@@ -3913,7 +4286,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="C7">
         <v>-298580</v>
@@ -3927,10 +4300,10 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="B8" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="C8">
         <v>-132483</v>
@@ -3944,10 +4317,10 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="B9" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="C9">
         <v>1118</v>
@@ -3961,10 +4334,10 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="B10" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="C10">
         <v>-17828</v>
@@ -3978,10 +4351,10 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="B11" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="C11">
         <v>-9702</v>
@@ -3995,10 +4368,10 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="B12" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="C12">
         <v>1371</v>
@@ -4015,7 +4388,7 @@
         <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="C13">
         <v>-157524</v>
@@ -4200,12 +4573,132 @@
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C2">
+        <v>90045</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>177</v>
+      </c>
+      <c r="B3" t="s">
+        <v>178</v>
+      </c>
+      <c r="C3">
+        <v>4935</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>178</v>
+      </c>
+      <c r="C4">
+        <v>94980</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>176</v>
+      </c>
+      <c r="B5" t="s">
+        <v>178</v>
+      </c>
+      <c r="C5">
+        <v>54581</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>177</v>
+      </c>
+      <c r="B6" t="s">
+        <v>178</v>
+      </c>
+      <c r="C6">
+        <v>2168</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>178</v>
+      </c>
+      <c r="C7">
+        <v>56749</v>
+      </c>
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7">
+        <v>2022</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
